--- a/src/main/webapp/resources/파이널이미지파일/구장사진.xlsx
+++ b/src/main/webapp/resources/파이널이미지파일/구장사진.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerot\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerot\Desktop\final_pj\src\main\webapp\resources\파이널이미지파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E6D352-6BCE-4D57-8F73-CD76A915888C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105F0E2F-AD15-4E1E-BA0B-AD3FA4300B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21240" yWindow="2360" windowWidth="19860" windowHeight="12150" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20100" yWindow="0" windowWidth="19860" windowHeight="12150" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="214">
   <si>
     <t>6시</t>
   </si>
@@ -654,6 +654,26 @@
   <si>
     <t>중간1,앞1</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>배구남</t>
+  </si>
+  <si>
+    <t>배구여</t>
+  </si>
+  <si>
+    <t>축구남</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>야구남</t>
+  </si>
+  <si>
+    <t>농구남</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>농구여</t>
   </si>
 </sst>
 </file>
@@ -1280,11 +1300,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:P57"/>
+  <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1345,28 +1365,20 @@
         <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>125</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="I2" s="5"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="K2" s="5"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="3" t="s">
-        <v>174</v>
-      </c>
+      <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1376,24 +1388,28 @@
         <v>46</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="I3" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="K3" s="5" t="s">
+        <v>200</v>
+      </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="3" t="s">
-        <v>62</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -1404,28 +1420,24 @@
         <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>201</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="5" t="s">
-        <v>202</v>
-      </c>
+      <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="3" t="s">
-        <v>185</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -1436,26 +1448,28 @@
         <v>46</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F5" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="5" t="s">
-        <v>201</v>
-      </c>
+      <c r="L5" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="M5" s="1"/>
       <c r="N5" s="3" t="s">
-        <v>64</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -1466,24 +1480,30 @@
         <v>46</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="I6" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>200</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="M6" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="N6" s="3" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -1494,16 +1514,20 @@
         <v>46</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+        <v>126</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1511,88 +1535,78 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="3" t="s">
-        <v>159</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="J8" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="3"/>
+      <c r="M8" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>134</v>
-      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="5"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>201</v>
-      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="5"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>201</v>
-      </c>
+      <c r="B10" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="3" t="s">
-        <v>186</v>
-      </c>
+      <c r="N10" s="3"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -1602,28 +1616,28 @@
         <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="J11" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -1634,28 +1648,28 @@
         <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+        <v>130</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>201</v>
-      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
       <c r="N12" s="3" t="s">
-        <v>34</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -1666,26 +1680,28 @@
         <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F13" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>200</v>
+      </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="5" t="s">
-        <v>202</v>
-      </c>
+      <c r="H13" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -1696,13 +1712,13 @@
         <v>54</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1710,12 +1726,14 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
+      <c r="L14" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="M14" s="5" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>176</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -1726,28 +1744,26 @@
         <v>54</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>201</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="I15" s="5" t="s">
+        <v>202</v>
+      </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="5" t="s">
-        <v>200</v>
-      </c>
+      <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="3" t="s">
-        <v>184</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -1758,28 +1774,26 @@
         <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>201</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="5" t="s">
-        <v>200</v>
-      </c>
+      <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="M16" s="5" t="s">
+        <v>207</v>
+      </c>
       <c r="N16" s="3" t="s">
-        <v>35</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
@@ -1790,28 +1804,28 @@
         <v>54</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>200</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="K17" s="5" t="s">
+        <v>200</v>
+      </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="3" t="s">
-        <v>39</v>
+        <v>184</v>
       </c>
       <c r="P17" s="1"/>
     </row>
@@ -1823,45 +1837,59 @@
         <v>54</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="5" t="s">
-        <v>200</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>200</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="3"/>
+      <c r="N19" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
@@ -1871,70 +1899,58 @@
         <v>54</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="5" t="s">
+        <v>200</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="K20" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="3" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="G21" s="5"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="K21" s="5"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="3" t="s">
-        <v>66</v>
-      </c>
+      <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>84</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1943,9 +1959,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="3" t="s">
-        <v>182</v>
-      </c>
+      <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
@@ -1955,13 +1969,13 @@
         <v>54</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1972,7 +1986,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="3" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
@@ -1983,13 +1997,13 @@
         <v>54</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -2000,7 +2014,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="3" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
@@ -2011,13 +2025,13 @@
         <v>54</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -2028,7 +2042,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="3" t="s">
-        <v>108</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -2039,13 +2053,13 @@
         <v>54</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -2056,7 +2070,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="3" t="s">
-        <v>190</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -2067,13 +2081,13 @@
         <v>54</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>150</v>
+        <v>83</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>139</v>
+        <v>17</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -2084,7 +2098,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="3" t="s">
-        <v>189</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
@@ -2095,13 +2109,13 @@
         <v>54</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -2112,7 +2126,7 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="3" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
@@ -2123,13 +2137,13 @@
         <v>54</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -2140,15 +2154,23 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -2157,7 +2179,9 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="3"/>
+      <c r="N30" s="3" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
@@ -2167,13 +2191,13 @@
         <v>54</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -2183,8 +2207,8 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="4" t="s">
-        <v>188</v>
+      <c r="N31" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
@@ -2195,13 +2219,13 @@
         <v>54</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -2211,26 +2235,18 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="4" t="s">
-        <v>192</v>
+      <c r="N32" s="3" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -2239,26 +2255,18 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="4" t="s">
-        <v>181</v>
-      </c>
+      <c r="N33" s="3"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="B34" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -2267,9 +2275,7 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
-      <c r="N34" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="N34" s="3"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
@@ -2279,13 +2285,13 @@
         <v>54</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2296,7 +2302,7 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
@@ -2307,13 +2313,13 @@
         <v>54</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>92</v>
+        <v>160</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -2324,7 +2330,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
@@ -2335,13 +2341,13 @@
         <v>54</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>154</v>
+        <v>87</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -2352,7 +2358,7 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="4" t="s">
-        <v>44</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
@@ -2363,13 +2369,13 @@
         <v>54</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -2380,7 +2386,7 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="4" t="s">
-        <v>180</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
@@ -2391,13 +2397,13 @@
         <v>54</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -2408,7 +2414,7 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="4" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
@@ -2419,13 +2425,13 @@
         <v>54</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -2436,7 +2442,7 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="4" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
@@ -2447,13 +2453,13 @@
         <v>54</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>86</v>
+        <v>171</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>167</v>
+        <v>50</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -2464,7 +2470,7 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="4" t="s">
-        <v>195</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
@@ -2475,13 +2481,13 @@
         <v>54</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -2492,7 +2498,7 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="4" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
@@ -2503,18 +2509,16 @@
         <v>54</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>113</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>169</v>
+        <v>100</v>
       </c>
       <c r="F43" s="1"/>
-      <c r="G43" s="5" t="s">
-        <v>201</v>
-      </c>
+      <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -2522,7 +2526,7 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="4" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
@@ -2533,13 +2537,13 @@
         <v>54</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -2550,7 +2554,7 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="4" t="s">
-        <v>33</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
@@ -2561,13 +2565,13 @@
         <v>54</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>172</v>
+        <v>94</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -2578,7 +2582,7 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="4" t="s">
-        <v>65</v>
+        <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
@@ -2589,20 +2593,16 @@
         <v>54</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>28</v>
+        <v>166</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>201</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -2610,25 +2610,17 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="4" t="s">
-        <v>31</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>155</v>
-      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -2637,26 +2629,18 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
-      <c r="N47" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="N47" s="4"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>163</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -2665,9 +2649,7 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
-      <c r="N48" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="N48" s="4"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
@@ -2677,51 +2659,69 @@
         <v>54</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
+      <c r="G49" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
+      <c r="M49" s="5" t="s">
+        <v>206</v>
+      </c>
       <c r="N49" s="4" t="s">
-        <v>193</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
+      <c r="B50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
+      <c r="K50" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="M50" s="1"/>
-      <c r="N50" s="4"/>
+      <c r="N50" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>115</v>
@@ -2730,17 +2730,19 @@
         <v>172</v>
       </c>
       <c r="F51" s="1"/>
-      <c r="G51" s="5" t="s">
-        <v>201</v>
-      </c>
+      <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
+      <c r="K51" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="3" t="s">
-        <v>177</v>
+      <c r="M51" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
@@ -2748,31 +2750,33 @@
         <v>49</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="G52" s="1"/>
+        <v>204</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>63</v>
+        <v>201</v>
+      </c>
+      <c r="N52" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
@@ -2780,31 +2784,31 @@
         <v>49</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
+      <c r="I53" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="J53" s="1"/>
-      <c r="K53" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="L53" s="1"/>
-      <c r="M53" s="5" t="s">
+      <c r="K53" s="1"/>
+      <c r="L53" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="N53" s="3" t="s">
-        <v>61</v>
+      <c r="M53" s="1"/>
+      <c r="N53" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
@@ -2812,10 +2816,10 @@
         <v>49</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>153</v>
@@ -2823,16 +2827,20 @@
       <c r="E54" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F54" s="1"/>
+      <c r="F54" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="3" t="s">
-        <v>178</v>
+      <c r="M54" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
@@ -2840,16 +2848,16 @@
         <v>49</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>168</v>
+        <v>106</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -2857,28 +2865,24 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="3" t="s">
-        <v>16</v>
+      <c r="L55" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="M55" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -2887,97 +2891,285 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
-      <c r="N56" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="N56" s="4"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>157</v>
-      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-      <c r="G57" s="5" t="s">
-        <v>201</v>
-      </c>
+      <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
-      <c r="M57" s="5" t="s">
+      <c r="M57" s="1"/>
+      <c r="N57" s="4"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B58" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="N57" s="3" t="s">
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B59" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B60" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F60" s="1"/>
+      <c r="G60" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="L60" s="1"/>
+      <c r="M60" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B61" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="N61" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B62" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F62" s="1"/>
+      <c r="G62" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B63" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="L63" s="1"/>
+      <c r="M63" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="N63" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B64" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F64" s="1"/>
+      <c r="G64" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="N64" s="3" t="s">
         <v>179</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="N3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="N4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="N5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="N6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="N7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="N9" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="N10" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="N11" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="N12" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="N13" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="N14" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="N15" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="N16" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="N17" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="N18" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="N20" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="N21" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="N22" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="N23" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="N24" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="N25" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="N26" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="N27" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="N28" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="N29" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="N51" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="N52" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="N53" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="N54" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="N55" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="N56" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="N57" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="N31" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="N32" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="N33" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="N34" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="N35" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="N36" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="N37" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="N38" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="N39" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="N40" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="N41" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="N42" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="N43" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="N44" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="N45" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="N46" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="N47" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="N48" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="N49" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="N3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="N4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="N5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="N6" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="N7" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="N8" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="N11" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="N12" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="N13" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="N14" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="N15" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="N16" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="N17" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="N18" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="N19" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="N20" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="N23" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="N24" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="N25" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="N26" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="N27" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="N28" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="N29" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="N30" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="N31" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="N32" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="N58" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="N59" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="N60" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="N61" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="N62" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="N63" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="N64" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="N35" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="N36" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="N37" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="N38" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="N39" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="N40" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="N41" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="N42" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="N43" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="N44" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="N45" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="N46" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="N49" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="N50" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="N51" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="N52" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="N53" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="N54" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="N55" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
   </hyperlinks>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId53"/>
